--- a/NewOldTask-analysis/variantLIST.xlsx
+++ b/NewOldTask-analysis/variantLIST.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darwinm\Documents\MATLAB\EyeTrack\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Publications_Meta\InProgress\Eye-tracking-MD-memory\Code_test\EyeTrack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B07409-2367-433D-99F3-91FB211C6F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D300F352-39F4-431C-9615-8422BA767839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="0" windowWidth="10656" windowHeight="13800" xr2:uid="{0E9B18D6-6A90-4414-9ED3-7B471462026E}"/>
+    <workbookView xWindow="3705" yWindow="3810" windowWidth="33090" windowHeight="17070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,84 +36,258 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="84">
   <si>
     <t>Subject</t>
   </si>
   <si>
+    <t>AMC_PY21NO05</t>
+  </si>
+  <si>
+    <t>AMC_PY22NO09</t>
+  </si>
+  <si>
+    <t>AMC_PY22NO12</t>
+  </si>
+  <si>
+    <t>AMC_PY22NO13</t>
+  </si>
+  <si>
+    <t>AMC_PY22NO16</t>
+  </si>
+  <si>
     <t>EDF</t>
   </si>
   <si>
+    <t>NO5171621.edf</t>
+  </si>
+  <si>
+    <t>NO5271621.edf</t>
+  </si>
+  <si>
+    <t>NO5171821.edf</t>
+  </si>
+  <si>
+    <t>NO5271821.edf</t>
+  </si>
+  <si>
+    <t>NO20221615110.edf</t>
+  </si>
+  <si>
+    <t>NO202216152152.edf</t>
+  </si>
+  <si>
+    <t>NO202217121946.edf</t>
+  </si>
+  <si>
+    <t>NO202217122836.edf</t>
+  </si>
+  <si>
+    <t>NO20221811515.edf</t>
+  </si>
+  <si>
+    <t>NO20221812052.edf</t>
+  </si>
+  <si>
+    <t>NO52022420124541.edf</t>
+  </si>
+  <si>
+    <t>NO52022420125453.edf</t>
+  </si>
+  <si>
+    <t>NO202252915450.edf</t>
+  </si>
+  <si>
+    <t>NO2022529151348.edf</t>
+  </si>
+  <si>
+    <t>NO202261115116.edf</t>
+  </si>
+  <si>
+    <t>NO20226111597.edf</t>
+  </si>
+  <si>
+    <t>NO2022527105026.edf</t>
+  </si>
+  <si>
+    <t>NO2022527105927.edf</t>
+  </si>
+  <si>
+    <t>NO2022826164318.edf</t>
+  </si>
+  <si>
+    <t>NO202282616539.edf</t>
+  </si>
+  <si>
+    <t>NO20228261764.edf</t>
+  </si>
+  <si>
+    <t>NO2022826171650.edf</t>
+  </si>
+  <si>
     <t>Variant</t>
   </si>
   <si>
     <t>Block</t>
   </si>
   <si>
-    <t>AMC_PY22NO12</t>
-  </si>
-  <si>
-    <t>AMC_PY22NO13</t>
-  </si>
-  <si>
-    <t>AMC_PY22NO16</t>
-  </si>
-  <si>
-    <t>NO52022420124541.edf</t>
-  </si>
-  <si>
-    <t>NO52022420125453.edf</t>
-  </si>
-  <si>
     <t>learn</t>
   </si>
   <si>
     <t>recog</t>
   </si>
   <si>
-    <t>NO20226111597.edf</t>
-  </si>
-  <si>
-    <t>NO202252915450.edf</t>
-  </si>
-  <si>
-    <t>NO202261115116.edf</t>
-  </si>
-  <si>
-    <t>NO2022527105026.edf</t>
-  </si>
-  <si>
-    <t>NO2022527105927.edf</t>
-  </si>
-  <si>
-    <t>NO2022529151348.edf</t>
-  </si>
-  <si>
-    <t>NO20228261764.edf</t>
-  </si>
-  <si>
-    <t>NO202282616539.edf</t>
-  </si>
-  <si>
-    <t>NO2022826164318.edf</t>
-  </si>
-  <si>
-    <t>NO2022826171650.edf</t>
-  </si>
-  <si>
-    <t>AMC_PY21NO05</t>
-  </si>
-  <si>
-    <t>NO5171621.edf</t>
-  </si>
-  <si>
-    <t>NO5271621.edf</t>
-  </si>
-  <si>
-    <t>NO5171821.edf</t>
-  </si>
-  <si>
-    <t>NO5271821.edf</t>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>Behavior</t>
+  </si>
+  <si>
+    <t>MW5_Learning_7.16.21.txt</t>
+  </si>
+  <si>
+    <t>MW5_Recognition_7.16.21.txt</t>
+  </si>
+  <si>
+    <t>MW5_Learning_7.18.21.txt</t>
+  </si>
+  <si>
+    <t>MW5_Recognition_7.18.21.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY520221615110.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY5202216152152.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY5202217121946.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY5202217122836.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY520221811515.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY520221812052.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY52022420124541.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY52022420125453.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY5202252915450.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY52022529151348.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY5202261115116.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY520226111597.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY52022527105026.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY52022527105927.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY52022826164318.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY5202282616539.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY520228261764.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY52022826171650.txt</t>
+  </si>
+  <si>
+    <t>MatFile</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY21NO05_1_Learn_5171621.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY21NO05_1_Recog_5271621.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY21NO05_2_Learn_5171821.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY21NO05_2_Recog_5271821.mat</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>Eye2Use</t>
+  </si>
+  <si>
+    <t>Left</t>
   </si>
 </sst>
 </file>
@@ -155,8 +329,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,7 +638,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -471,254 +646,495 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E8EA2D-6E63-4FC7-A7CB-7F0011E6CB1C}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" customWidth="1"/>
+    <col min="4" max="4" width="6" customWidth="1"/>
+    <col min="5" max="5" width="31.42578125" customWidth="1"/>
+    <col min="6" max="6" width="44.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>3</v>
       </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
         <v>1</v>
       </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
       <c r="D14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="E15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20">
         <v>1</v>
       </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17" t="s">
-        <v>10</v>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/NewOldTask-analysis/variantLIST.xlsx
+++ b/NewOldTask-analysis/variantLIST.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Publications_Meta\InProgress\Eye-tracking-MD-memory\Code_test\EyeTrack\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Github\Eye-tracking\NewOldTask-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D300F352-39F4-431C-9615-8422BA767839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88D8059-112F-4BCB-8680-F253E9AD707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3705" yWindow="3810" windowWidth="33090" windowHeight="17070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19050" yWindow="1935" windowWidth="18285" windowHeight="17070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="187">
+  <si>
+    <t>Left</t>
+  </si>
   <si>
     <t>Subject</t>
   </si>
@@ -281,6 +284,24 @@
     <t>eyetrack_AMC_PY21NO05_2_Recog_5271821.mat</t>
   </si>
   <si>
+    <t>eyetrack_AMC_PY22NO09_3_Learn_20221615110.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO09_3_Recog_202216152152.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO09_1_Learn_202217121946.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO09_1_Recog_202217122836.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO09_2_Learn_20221811515.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO09_2_Recog_20221812052.mat</t>
+  </si>
+  <si>
     <t>'</t>
   </si>
   <si>
@@ -288,6 +309,294 @@
   </si>
   <si>
     <t>Left</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>AMC_PY21NO05</t>
+  </si>
+  <si>
+    <t>AMC_PY22NO09</t>
+  </si>
+  <si>
+    <t>AMC_PY22NO12</t>
+  </si>
+  <si>
+    <t>AMC_PY22NO13</t>
+  </si>
+  <si>
+    <t>AMC_PY22NO16</t>
+  </si>
+  <si>
+    <t>EDF</t>
+  </si>
+  <si>
+    <t>NO5171621.edf</t>
+  </si>
+  <si>
+    <t>NO5271621.edf</t>
+  </si>
+  <si>
+    <t>NO5171821.edf</t>
+  </si>
+  <si>
+    <t>NO5271821.edf</t>
+  </si>
+  <si>
+    <t>NO20221615110.edf</t>
+  </si>
+  <si>
+    <t>NO202216152152.edf</t>
+  </si>
+  <si>
+    <t>NO202217121946.edf</t>
+  </si>
+  <si>
+    <t>NO202217122836.edf</t>
+  </si>
+  <si>
+    <t>NO20221811515.edf</t>
+  </si>
+  <si>
+    <t>NO20221812052.edf</t>
+  </si>
+  <si>
+    <t>NO52022420124541.edf</t>
+  </si>
+  <si>
+    <t>NO52022420125453.edf</t>
+  </si>
+  <si>
+    <t>NO202252915450.edf</t>
+  </si>
+  <si>
+    <t>NO2022529151348.edf</t>
+  </si>
+  <si>
+    <t>NO202261115116.edf</t>
+  </si>
+  <si>
+    <t>NO20226111597.edf</t>
+  </si>
+  <si>
+    <t>NO2022527105026.edf</t>
+  </si>
+  <si>
+    <t>NO2022527105927.edf</t>
+  </si>
+  <si>
+    <t>NO2022826164318.edf</t>
+  </si>
+  <si>
+    <t>NO202282616539.edf</t>
+  </si>
+  <si>
+    <t>NO20228261764.edf</t>
+  </si>
+  <si>
+    <t>NO2022826171650.edf</t>
+  </si>
+  <si>
+    <t>Variant</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>Behavior</t>
+  </si>
+  <si>
+    <t>MW5_Learning_7.16.21.txt</t>
+  </si>
+  <si>
+    <t>MW5_Recognition_7.16.21.txt</t>
+  </si>
+  <si>
+    <t>MW5_Learning_7.18.21.txt</t>
+  </si>
+  <si>
+    <t>MW5_Recognition_7.18.21.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY520221615110.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY5202216152152.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY5202217121946.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY5202217122836.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY520221811515.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY520221812052.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY52022420124541.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY52022420125453.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY5202252915450.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY52022529151348.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY5202261115116.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY520226111597.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY52022527105026.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY52022527105927.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY52022826164318.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY5202282616539.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY520228261764.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY52022826171650.txt</t>
+  </si>
+  <si>
+    <t>MatFile</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY21NO05_1_Learn_5171621.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY21NO05_1_Recog_5271621.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY21NO05_2_Learn_5171821.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY21NO05_2_Recog_5271821.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO09_3_Learn_20221615110.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO09_3_Recog_202216152152.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO09_1_Learn_202217121946.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO09_1_Recog_202217122836.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO09_2_Learn_20221811515.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO09_2_Recog_20221812052.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO12_1_Learn_52022420124541.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO12_1_Recog_52022420125453.mat</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>Eye2Use</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Right</t>
   </si>
 </sst>
 </file>
@@ -317,7 +626,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -325,13 +634,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -648,494 +959,525 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E8EA2D-6E63-4FC7-A7CB-7F0011E6CB1C}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" customWidth="1"/>
-    <col min="4" max="4" width="6" customWidth="1"/>
-    <col min="5" max="5" width="31.42578125" customWidth="1"/>
-    <col min="6" max="6" width="44.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="true"/>
+    <col min="2" max="2" width="21.5703125" customWidth="true"/>
+    <col min="3" max="3" width="7.5703125" customWidth="true"/>
+    <col min="4" max="4" width="6" customWidth="true"/>
+    <col min="5" max="5" width="31.42578125" customWidth="true"/>
+    <col min="6" max="6" width="51.140625" customWidth="true"/>
+    <col min="7" max="7" width="8.5703125" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" x14ac:dyDescent="0.25">
+      <c r="A2" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="0">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
+      <c r="D2" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" x14ac:dyDescent="0.25">
+      <c r="A3" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="0">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D3" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" x14ac:dyDescent="0.25">
+      <c r="A4" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="0">
+        <v>2</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" x14ac:dyDescent="0.25">
+      <c r="A5" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="0">
+        <v>2</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" x14ac:dyDescent="0.25">
+      <c r="A6" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="0">
+        <v>3</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" x14ac:dyDescent="0.25">
+      <c r="A7" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="0">
+        <v>3</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" x14ac:dyDescent="0.25">
+      <c r="A8" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="0">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
+      <c r="D8" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" x14ac:dyDescent="0.25">
+      <c r="A9" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="0">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D9" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" x14ac:dyDescent="0.25">
+      <c r="A10" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="0">
+        <v>2</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" x14ac:dyDescent="0.25">
+      <c r="A11" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="0">
+        <v>2</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" x14ac:dyDescent="0.25">
+      <c r="A12" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="0">
+        <v>3</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G12" s="0"/>
+    </row>
+    <row r="13" x14ac:dyDescent="0.25">
+      <c r="A13" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="0">
+        <v>3</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G13" s="0"/>
+    </row>
+    <row r="14" x14ac:dyDescent="0.25">
+      <c r="A14" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="0">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
+      <c r="D14" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G14" s="0"/>
+    </row>
+    <row r="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="0">
+        <v>1</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G15" s="0"/>
+    </row>
+    <row r="16" x14ac:dyDescent="0.25">
+      <c r="A16" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="0">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D16" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G16" s="0"/>
+    </row>
+    <row r="17" x14ac:dyDescent="0.25">
+      <c r="A17" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="0">
+        <v>2</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G17" s="0"/>
+    </row>
+    <row r="18" x14ac:dyDescent="0.25">
+      <c r="A18" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="0">
+        <v>3</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G18" s="0"/>
+    </row>
+    <row r="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="0">
+        <v>3</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G19" s="0"/>
+    </row>
+    <row r="20" x14ac:dyDescent="0.25">
+      <c r="A20" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="0">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
+      <c r="D20" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G20" s="0"/>
+    </row>
+    <row r="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="0">
+        <v>1</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G21" s="0"/>
+    </row>
+    <row r="22" x14ac:dyDescent="0.25">
+      <c r="A22" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="0">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D22" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G22" s="0"/>
+    </row>
+    <row r="23" x14ac:dyDescent="0.25">
+      <c r="A23" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="0">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" t="s">
-        <v>69</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-      <c r="D19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" t="s">
-        <v>75</v>
+      <c r="D23" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>167</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>81</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="G23" s="0"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/NewOldTask-analysis/variantLIST.xlsx
+++ b/NewOldTask-analysis/variantLIST.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,12 +10,12 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE94516-7C3A-46AB-8DD8-5E8A2E52D04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1275" yWindow="1740" windowWidth="17070" windowHeight="17070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1275" yWindow="1740" windowWidth="17070" windowHeight="17070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="211">
   <si>
     <t>Right</t>
   </si>
@@ -354,6 +354,321 @@
   </si>
   <si>
     <t>Right</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>AMC_PY21NO05</t>
+  </si>
+  <si>
+    <t>AMC_PY22NO09</t>
+  </si>
+  <si>
+    <t>AMC_PY22NO12</t>
+  </si>
+  <si>
+    <t>AMC_PY22NO13</t>
+  </si>
+  <si>
+    <t>AMC_PY22NO16</t>
+  </si>
+  <si>
+    <t>EDF</t>
+  </si>
+  <si>
+    <t>NO5171621.edf</t>
+  </si>
+  <si>
+    <t>NO5271621.edf</t>
+  </si>
+  <si>
+    <t>NO5171821.edf</t>
+  </si>
+  <si>
+    <t>NO5271821.edf</t>
+  </si>
+  <si>
+    <t>NO20221615110.edf</t>
+  </si>
+  <si>
+    <t>NO202216152152.edf</t>
+  </si>
+  <si>
+    <t>NO202217121946.edf</t>
+  </si>
+  <si>
+    <t>NO202217122836.edf</t>
+  </si>
+  <si>
+    <t>NO20221811515.edf</t>
+  </si>
+  <si>
+    <t>NO20221812052.edf</t>
+  </si>
+  <si>
+    <t>NO52022420124541.edf</t>
+  </si>
+  <si>
+    <t>NO52022420125453.edf</t>
+  </si>
+  <si>
+    <t>NO202252915450.edf</t>
+  </si>
+  <si>
+    <t>NO2022529151348.edf</t>
+  </si>
+  <si>
+    <t>NO202261115116.edf</t>
+  </si>
+  <si>
+    <t>NO20226111597.edf</t>
+  </si>
+  <si>
+    <t>NO2022527105026.edf</t>
+  </si>
+  <si>
+    <t>NO2022527105927.edf</t>
+  </si>
+  <si>
+    <t>NO2022826164318.edf</t>
+  </si>
+  <si>
+    <t>NO202282616539.edf</t>
+  </si>
+  <si>
+    <t>NO20228261764.edf</t>
+  </si>
+  <si>
+    <t>NO2022826171650.edf</t>
+  </si>
+  <si>
+    <t>Variant</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>Behavior</t>
+  </si>
+  <si>
+    <t>MW5_Learning_7.16.21.txt</t>
+  </si>
+  <si>
+    <t>MW5_Recognition_7.16.21.txt</t>
+  </si>
+  <si>
+    <t>MW5_Learning_7.18.21.txt</t>
+  </si>
+  <si>
+    <t>MW5_Recognition_7.18.21.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY520221615110.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY5202216152152.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY5202217121946.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY5202217122836.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY520221811515.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY520221812052.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY52022420124541.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY52022420125453.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY5202252915450.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY52022529151348.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY5202261115116.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY520226111597.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY52022527105026.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY52022527105927.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY52022826164318.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY5202282616539.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY520228261764.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY52022826171650.txt</t>
+  </si>
+  <si>
+    <t>MatFile</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY21NO05_1_Learn_5171621.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY21NO05_1_Recog_5271621.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY21NO05_2_Learn_5171821.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY21NO05_2_Recog_5271821.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO09_3_Learn_20221615110.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO09_3_Recog_202216152152.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO09_1_Learn_202217121946.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO09_1_Recog_202217122836.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO09_2_Learn_20221811515.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO09_2_Recog_20221812052.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO12_1_Learn_52022420124541.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO12_1_Recog_52022420125453.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO13_1_Learn_202252915450.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO13_1_Recog_2022529151348.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO13_2_Learn_202261115116.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO13_2_Recog_20226111597.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO13_3_Learn_2022527105026.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO13_3_Recog_2022527105927.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO16_1_Learn_2022826164318.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO16_1_Recog_202282616539.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO16_2_Learn_20228261764.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO16_2_Recog_2022826171650.mat</t>
+  </si>
+  <si>
+    <t>Eye2Use</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Left</t>
   </si>
 </sst>
 </file>
@@ -383,7 +698,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -391,13 +706,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -714,548 +1031,548 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E8EA2D-6E63-4FC7-A7CB-7F0011E6CB1C}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" customWidth="1"/>
-    <col min="4" max="4" width="6" customWidth="1"/>
-    <col min="5" max="5" width="31.42578125" customWidth="1"/>
-    <col min="6" max="6" width="51.140625" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="true"/>
+    <col min="2" max="2" width="21.5703125" customWidth="true"/>
+    <col min="3" max="3" width="7.5703125" customWidth="true"/>
+    <col min="4" max="4" width="6" customWidth="true"/>
+    <col min="5" max="5" width="31.42578125" customWidth="true"/>
+    <col min="6" max="6" width="51.140625" customWidth="true"/>
+    <col min="7" max="7" width="8.5703125" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" x14ac:dyDescent="0.25">
+      <c r="A2" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" x14ac:dyDescent="0.25">
+      <c r="A3" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" x14ac:dyDescent="0.25">
+      <c r="A4" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="0">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D4" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" x14ac:dyDescent="0.25">
+      <c r="A5" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="0">
+        <v>2</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" x14ac:dyDescent="0.25">
+      <c r="A6" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="0">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2">
+      <c r="D6" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" x14ac:dyDescent="0.25">
+      <c r="A7" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="0">
+        <v>3</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" x14ac:dyDescent="0.25">
+      <c r="A8" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="0">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D8" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" x14ac:dyDescent="0.25">
+      <c r="A9" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="0">
+        <v>1</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" x14ac:dyDescent="0.25">
+      <c r="A10" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="0">
+        <v>2</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" x14ac:dyDescent="0.25">
+      <c r="A11" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="0">
+        <v>2</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" x14ac:dyDescent="0.25">
+      <c r="A12" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="0">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3">
+      <c r="D12" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" x14ac:dyDescent="0.25">
+      <c r="A13" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="0">
+        <v>3</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="14" x14ac:dyDescent="0.25">
+      <c r="A14" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="0">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D14" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="0">
+        <v>1</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="16" x14ac:dyDescent="0.25">
+      <c r="A16" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="0">
+        <v>2</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="17" x14ac:dyDescent="0.25">
+      <c r="A17" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="0">
+        <v>2</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" x14ac:dyDescent="0.25">
+      <c r="A18" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="0">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
+      <c r="D18" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="0">
+        <v>3</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="20" x14ac:dyDescent="0.25">
+      <c r="A20" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="0">
+        <v>1</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" s="0">
+        <v>1</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22" x14ac:dyDescent="0.25">
+      <c r="A22" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="0">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5">
+      <c r="D22" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" x14ac:dyDescent="0.25">
+      <c r="A23" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" s="0">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G16" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-      <c r="D19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G19" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" t="s">
-        <v>77</v>
+      <c r="D23" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>181</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G23" t="s">
-        <v>1</v>
+        <v>204</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/NewOldTask-analysis/variantLIST.xlsx
+++ b/NewOldTask-analysis/variantLIST.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="316">
   <si>
     <t>Right</t>
   </si>
@@ -354,6 +354,321 @@
   </si>
   <si>
     <t>Right</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>AMC_PY21NO05</t>
+  </si>
+  <si>
+    <t>AMC_PY22NO09</t>
+  </si>
+  <si>
+    <t>AMC_PY22NO12</t>
+  </si>
+  <si>
+    <t>AMC_PY22NO13</t>
+  </si>
+  <si>
+    <t>AMC_PY22NO16</t>
+  </si>
+  <si>
+    <t>EDF</t>
+  </si>
+  <si>
+    <t>NO5171621.edf</t>
+  </si>
+  <si>
+    <t>NO5271621.edf</t>
+  </si>
+  <si>
+    <t>NO5171821.edf</t>
+  </si>
+  <si>
+    <t>NO5271821.edf</t>
+  </si>
+  <si>
+    <t>NO20221615110.edf</t>
+  </si>
+  <si>
+    <t>NO202216152152.edf</t>
+  </si>
+  <si>
+    <t>NO202217121946.edf</t>
+  </si>
+  <si>
+    <t>NO202217122836.edf</t>
+  </si>
+  <si>
+    <t>NO20221811515.edf</t>
+  </si>
+  <si>
+    <t>NO20221812052.edf</t>
+  </si>
+  <si>
+    <t>NO52022420124541.edf</t>
+  </si>
+  <si>
+    <t>NO52022420125453.edf</t>
+  </si>
+  <si>
+    <t>NO202252915450.edf</t>
+  </si>
+  <si>
+    <t>NO2022529151348.edf</t>
+  </si>
+  <si>
+    <t>NO202261115116.edf</t>
+  </si>
+  <si>
+    <t>NO20226111597.edf</t>
+  </si>
+  <si>
+    <t>NO2022527105026.edf</t>
+  </si>
+  <si>
+    <t>NO2022527105927.edf</t>
+  </si>
+  <si>
+    <t>NO2022826164318.edf</t>
+  </si>
+  <si>
+    <t>NO202282616539.edf</t>
+  </si>
+  <si>
+    <t>NO20228261764.edf</t>
+  </si>
+  <si>
+    <t>NO2022826171650.edf</t>
+  </si>
+  <si>
+    <t>Variant</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>Behavior</t>
+  </si>
+  <si>
+    <t>MW5_Learning_7.16.21.txt</t>
+  </si>
+  <si>
+    <t>MW5_Recognition_7.16.21.txt</t>
+  </si>
+  <si>
+    <t>MW5_Learning_7.18.21.txt</t>
+  </si>
+  <si>
+    <t>MW5_Recognition_7.18.21.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY520221615110.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY5202216152152.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY5202217121946.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY5202217122836.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY520221811515.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY520221812052.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY52022420124541.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY52022420125453.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY5202252915450.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY52022529151348.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY5202261115116.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY520226111597.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY52022527105026.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY52022527105927.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY52022826164318.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY5202282616539.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY520228261764.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY52022826171650.txt</t>
+  </si>
+  <si>
+    <t>MatFile</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY21NO05_1_Learn_5171621.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY21NO05_1_Recog_5271621.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY21NO05_2_Learn_5171821.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY21NO05_2_Recog_5271821.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO09_3_Learn_20221615110.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO09_3_Recog_202216152152.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO09_1_Learn_202217121946.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO09_1_Recog_202217122836.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO09_2_Learn_20221811515.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO09_2_Recog_20221812052.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO12_1_Learn_52022420124541.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO12_1_Recog_52022420125453.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO13_1_Learn_202252915450.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO13_1_Recog_2022529151348.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO13_2_Learn_202261115116.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO13_2_Recog_20226111597.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO13_3_Learn_2022527105026.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO13_3_Recog_2022527105927.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO16_1_Learn_2022826164318.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO16_1_Recog_202282616539.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO16_2_Learn_20228261764.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO16_2_Recog_2022826171650.mat</t>
+  </si>
+  <si>
+    <t>Eye2Use</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Left</t>
   </si>
   <si>
     <t>Subject</t>
@@ -1037,542 +1352,542 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="true"/>
-    <col min="2" max="2" width="21.5703125" customWidth="true"/>
-    <col min="3" max="3" width="7.5703125" customWidth="true"/>
-    <col min="4" max="4" width="6" customWidth="true"/>
-    <col min="5" max="5" width="31.42578125" customWidth="true"/>
-    <col min="6" max="6" width="51.140625" customWidth="true"/>
-    <col min="7" max="7" width="8.5703125" customWidth="true"/>
+    <col min="1" max="1" width="14.7109375" customWidth="true"/>
+    <col min="2" max="2" width="21.046875" customWidth="true"/>
+    <col min="3" max="3" width="7.046875" customWidth="true"/>
+    <col min="4" max="4" width="5.7109375" customWidth="true"/>
+    <col min="5" max="5" width="30.7109375" customWidth="true"/>
+    <col min="6" max="6" width="49.48828125" customWidth="true"/>
+    <col min="7" max="7" width="8.15625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" x14ac:dyDescent="0.25">
       <c r="A1" s="0" t="s">
-        <v>106</v>
+        <v>211</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>112</v>
+        <v>217</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>135</v>
+        <v>240</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>136</v>
+        <v>241</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>159</v>
+        <v>264</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>182</v>
+        <v>287</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>205</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" x14ac:dyDescent="0.25">
       <c r="A2" s="0" t="s">
-        <v>107</v>
+        <v>212</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>113</v>
+        <v>218</v>
       </c>
       <c r="C2" s="0">
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>137</v>
+        <v>242</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>160</v>
+        <v>265</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>183</v>
+        <v>288</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>206</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" x14ac:dyDescent="0.25">
       <c r="A3" s="0" t="s">
-        <v>107</v>
+        <v>212</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>114</v>
+        <v>219</v>
       </c>
       <c r="C3" s="0">
         <v>1</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>138</v>
+        <v>243</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>161</v>
+        <v>266</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>184</v>
+        <v>289</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>206</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" x14ac:dyDescent="0.25">
       <c r="A4" s="0" t="s">
-        <v>107</v>
+        <v>212</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="C4" s="0">
         <v>2</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>139</v>
+        <v>244</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>162</v>
+        <v>267</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>185</v>
+        <v>290</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>206</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" x14ac:dyDescent="0.25">
       <c r="A5" s="0" t="s">
-        <v>107</v>
+        <v>212</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>116</v>
+        <v>221</v>
       </c>
       <c r="C5" s="0">
         <v>2</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>140</v>
+        <v>245</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>163</v>
+        <v>268</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>186</v>
+        <v>291</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>206</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" x14ac:dyDescent="0.25">
       <c r="A6" s="0" t="s">
-        <v>108</v>
+        <v>213</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>117</v>
+        <v>222</v>
       </c>
       <c r="C6" s="0">
         <v>3</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>141</v>
+        <v>246</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>164</v>
+        <v>269</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>187</v>
+        <v>292</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>207</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" x14ac:dyDescent="0.25">
       <c r="A7" s="0" t="s">
-        <v>108</v>
+        <v>213</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>118</v>
+        <v>223</v>
       </c>
       <c r="C7" s="0">
         <v>3</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>142</v>
+        <v>247</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>165</v>
+        <v>270</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>188</v>
+        <v>293</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>208</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" x14ac:dyDescent="0.25">
       <c r="A8" s="0" t="s">
-        <v>108</v>
+        <v>213</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>119</v>
+        <v>224</v>
       </c>
       <c r="C8" s="0">
         <v>1</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>143</v>
+        <v>248</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>166</v>
+        <v>271</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>189</v>
+        <v>294</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>208</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" x14ac:dyDescent="0.25">
       <c r="A9" s="0" t="s">
-        <v>108</v>
+        <v>213</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>120</v>
+        <v>225</v>
       </c>
       <c r="C9" s="0">
         <v>1</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>144</v>
+        <v>249</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>167</v>
+        <v>272</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>190</v>
+        <v>295</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>208</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10" x14ac:dyDescent="0.25">
       <c r="A10" s="0" t="s">
-        <v>108</v>
+        <v>213</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>121</v>
+        <v>226</v>
       </c>
       <c r="C10" s="0">
         <v>2</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>145</v>
+        <v>250</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>168</v>
+        <v>273</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>191</v>
+        <v>296</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>209</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" x14ac:dyDescent="0.25">
       <c r="A11" s="0" t="s">
-        <v>108</v>
+        <v>213</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>122</v>
+        <v>227</v>
       </c>
       <c r="C11" s="0">
         <v>2</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>146</v>
+        <v>251</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>169</v>
+        <v>274</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>192</v>
+        <v>297</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>209</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" x14ac:dyDescent="0.25">
       <c r="A12" s="0" t="s">
-        <v>109</v>
+        <v>214</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>123</v>
+        <v>228</v>
       </c>
       <c r="C12" s="0">
         <v>3</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>147</v>
+        <v>252</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>170</v>
+        <v>275</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>193</v>
+        <v>298</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>209</v>
+        <v>314</v>
       </c>
     </row>
     <row r="13" x14ac:dyDescent="0.25">
       <c r="A13" s="0" t="s">
-        <v>109</v>
+        <v>214</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>124</v>
+        <v>229</v>
       </c>
       <c r="C13" s="0">
         <v>3</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>148</v>
+        <v>253</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>194</v>
+        <v>299</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>209</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14" x14ac:dyDescent="0.25">
       <c r="A14" s="0" t="s">
-        <v>110</v>
+        <v>215</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>125</v>
+        <v>230</v>
       </c>
       <c r="C14" s="0">
         <v>1</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>149</v>
+        <v>254</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>172</v>
+        <v>277</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>195</v>
+        <v>300</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>209</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" x14ac:dyDescent="0.25">
       <c r="A15" s="0" t="s">
-        <v>110</v>
+        <v>215</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>126</v>
+        <v>231</v>
       </c>
       <c r="C15" s="0">
         <v>1</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>150</v>
+        <v>255</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>173</v>
+        <v>278</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>196</v>
+        <v>301</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>209</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16" x14ac:dyDescent="0.25">
       <c r="A16" s="0" t="s">
-        <v>110</v>
+        <v>215</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>127</v>
+        <v>232</v>
       </c>
       <c r="C16" s="0">
         <v>2</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>151</v>
+        <v>256</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>174</v>
+        <v>279</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>197</v>
+        <v>302</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>209</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" x14ac:dyDescent="0.25">
       <c r="A17" s="0" t="s">
-        <v>110</v>
+        <v>215</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>128</v>
+        <v>233</v>
       </c>
       <c r="C17" s="0">
         <v>2</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>152</v>
+        <v>257</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>175</v>
+        <v>280</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>198</v>
+        <v>303</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>209</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" x14ac:dyDescent="0.25">
       <c r="A18" s="0" t="s">
-        <v>110</v>
+        <v>215</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>129</v>
+        <v>234</v>
       </c>
       <c r="C18" s="0">
         <v>3</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>153</v>
+        <v>258</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>176</v>
+        <v>281</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>199</v>
+        <v>304</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>209</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19" x14ac:dyDescent="0.25">
       <c r="A19" s="0" t="s">
-        <v>110</v>
+        <v>215</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>130</v>
+        <v>235</v>
       </c>
       <c r="C19" s="0">
         <v>3</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>154</v>
+        <v>259</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>177</v>
+        <v>282</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>200</v>
+        <v>305</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>209</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" x14ac:dyDescent="0.25">
       <c r="A20" s="0" t="s">
-        <v>111</v>
+        <v>216</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>131</v>
+        <v>236</v>
       </c>
       <c r="C20" s="0">
         <v>1</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>155</v>
+        <v>260</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>178</v>
+        <v>283</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>201</v>
+        <v>306</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>209</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21" x14ac:dyDescent="0.25">
       <c r="A21" s="0" t="s">
-        <v>111</v>
+        <v>216</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>132</v>
+        <v>237</v>
       </c>
       <c r="C21" s="0">
         <v>1</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>156</v>
+        <v>261</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>179</v>
+        <v>284</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>202</v>
+        <v>307</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>209</v>
+        <v>314</v>
       </c>
     </row>
     <row r="22" x14ac:dyDescent="0.25">
       <c r="A22" s="0" t="s">
-        <v>111</v>
+        <v>216</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>133</v>
+        <v>238</v>
       </c>
       <c r="C22" s="0">
         <v>2</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>157</v>
+        <v>262</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>180</v>
+        <v>285</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>203</v>
+        <v>308</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>209</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23" x14ac:dyDescent="0.25">
       <c r="A23" s="0" t="s">
-        <v>111</v>
+        <v>216</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>134</v>
+        <v>239</v>
       </c>
       <c r="C23" s="0">
         <v>2</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>158</v>
+        <v>263</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>181</v>
+        <v>286</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>204</v>
+        <v>309</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>210</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>

--- a/NewOldTask-analysis/variantLIST.xlsx
+++ b/NewOldTask-analysis/variantLIST.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="841">
   <si>
     <t>Right</t>
   </si>
@@ -354,6 +354,1581 @@
   </si>
   <si>
     <t>Right</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>AMC_PY21NO05</t>
+  </si>
+  <si>
+    <t>AMC_PY22NO09</t>
+  </si>
+  <si>
+    <t>AMC_PY22NO12</t>
+  </si>
+  <si>
+    <t>AMC_PY22NO13</t>
+  </si>
+  <si>
+    <t>AMC_PY22NO16</t>
+  </si>
+  <si>
+    <t>EDF</t>
+  </si>
+  <si>
+    <t>NO5171621.edf</t>
+  </si>
+  <si>
+    <t>NO5271621.edf</t>
+  </si>
+  <si>
+    <t>NO5171821.edf</t>
+  </si>
+  <si>
+    <t>NO5271821.edf</t>
+  </si>
+  <si>
+    <t>NO20221615110.edf</t>
+  </si>
+  <si>
+    <t>NO202216152152.edf</t>
+  </si>
+  <si>
+    <t>NO202217121946.edf</t>
+  </si>
+  <si>
+    <t>NO202217122836.edf</t>
+  </si>
+  <si>
+    <t>NO20221811515.edf</t>
+  </si>
+  <si>
+    <t>NO20221812052.edf</t>
+  </si>
+  <si>
+    <t>NO52022420124541.edf</t>
+  </si>
+  <si>
+    <t>NO52022420125453.edf</t>
+  </si>
+  <si>
+    <t>NO202252915450.edf</t>
+  </si>
+  <si>
+    <t>NO2022529151348.edf</t>
+  </si>
+  <si>
+    <t>NO202261115116.edf</t>
+  </si>
+  <si>
+    <t>NO20226111597.edf</t>
+  </si>
+  <si>
+    <t>NO2022527105026.edf</t>
+  </si>
+  <si>
+    <t>NO2022527105927.edf</t>
+  </si>
+  <si>
+    <t>NO2022826164318.edf</t>
+  </si>
+  <si>
+    <t>NO202282616539.edf</t>
+  </si>
+  <si>
+    <t>NO20228261764.edf</t>
+  </si>
+  <si>
+    <t>NO2022826171650.edf</t>
+  </si>
+  <si>
+    <t>Variant</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>Behavior</t>
+  </si>
+  <si>
+    <t>MW5_Learning_7.16.21.txt</t>
+  </si>
+  <si>
+    <t>MW5_Recognition_7.16.21.txt</t>
+  </si>
+  <si>
+    <t>MW5_Learning_7.18.21.txt</t>
+  </si>
+  <si>
+    <t>MW5_Recognition_7.18.21.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY520221615110.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY5202216152152.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY5202217121946.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY5202217122836.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY520221811515.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY520221812052.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY52022420124541.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY52022420125453.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY5202252915450.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY52022529151348.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY5202261115116.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY520226111597.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY52022527105026.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY52022527105927.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY52022826164318.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY5202282616539.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY520228261764.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY52022826171650.txt</t>
+  </si>
+  <si>
+    <t>MatFile</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY21NO05_1_Learn_5171621.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY21NO05_1_Recog_5271621.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY21NO05_2_Learn_5171821.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY21NO05_2_Recog_5271821.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO09_3_Learn_20221615110.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO09_3_Recog_202216152152.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO09_1_Learn_202217121946.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO09_1_Recog_202217122836.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO09_2_Learn_20221811515.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO09_2_Recog_20221812052.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO12_1_Learn_52022420124541.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO12_1_Recog_52022420125453.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO13_1_Learn_202252915450.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO13_1_Recog_2022529151348.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO13_2_Learn_202261115116.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO13_2_Recog_20226111597.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO13_3_Learn_2022527105026.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO13_3_Recog_2022527105927.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO16_1_Learn_2022826164318.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO16_1_Recog_202282616539.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO16_2_Learn_20228261764.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO16_2_Recog_2022826171650.mat</t>
+  </si>
+  <si>
+    <t>Eye2Use</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>AMC_PY21NO05</t>
+  </si>
+  <si>
+    <t>AMC_PY22NO09</t>
+  </si>
+  <si>
+    <t>AMC_PY22NO12</t>
+  </si>
+  <si>
+    <t>AMC_PY22NO13</t>
+  </si>
+  <si>
+    <t>AMC_PY22NO16</t>
+  </si>
+  <si>
+    <t>EDF</t>
+  </si>
+  <si>
+    <t>NO5171621.edf</t>
+  </si>
+  <si>
+    <t>NO5271621.edf</t>
+  </si>
+  <si>
+    <t>NO5171821.edf</t>
+  </si>
+  <si>
+    <t>NO5271821.edf</t>
+  </si>
+  <si>
+    <t>NO20221615110.edf</t>
+  </si>
+  <si>
+    <t>NO202216152152.edf</t>
+  </si>
+  <si>
+    <t>NO202217121946.edf</t>
+  </si>
+  <si>
+    <t>NO202217122836.edf</t>
+  </si>
+  <si>
+    <t>NO20221811515.edf</t>
+  </si>
+  <si>
+    <t>NO20221812052.edf</t>
+  </si>
+  <si>
+    <t>NO52022420124541.edf</t>
+  </si>
+  <si>
+    <t>NO52022420125453.edf</t>
+  </si>
+  <si>
+    <t>NO202252915450.edf</t>
+  </si>
+  <si>
+    <t>NO2022529151348.edf</t>
+  </si>
+  <si>
+    <t>NO202261115116.edf</t>
+  </si>
+  <si>
+    <t>NO20226111597.edf</t>
+  </si>
+  <si>
+    <t>NO2022527105026.edf</t>
+  </si>
+  <si>
+    <t>NO2022527105927.edf</t>
+  </si>
+  <si>
+    <t>NO2022826164318.edf</t>
+  </si>
+  <si>
+    <t>NO202282616539.edf</t>
+  </si>
+  <si>
+    <t>NO20228261764.edf</t>
+  </si>
+  <si>
+    <t>NO2022826171650.edf</t>
+  </si>
+  <si>
+    <t>Variant</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>Behavior</t>
+  </si>
+  <si>
+    <t>MW5_Learning_7.16.21.txt</t>
+  </si>
+  <si>
+    <t>MW5_Recognition_7.16.21.txt</t>
+  </si>
+  <si>
+    <t>MW5_Learning_7.18.21.txt</t>
+  </si>
+  <si>
+    <t>MW5_Recognition_7.18.21.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY520221615110.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY5202216152152.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY5202217121946.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY5202217122836.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY520221811515.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY520221812052.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY52022420124541.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY52022420125453.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY5202252915450.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY52022529151348.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY5202261115116.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY520226111597.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY52022527105026.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY52022527105927.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY52022826164318.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY5202282616539.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY520228261764.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY52022826171650.txt</t>
+  </si>
+  <si>
+    <t>MatFile</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY21NO05_1_Learn_5171621.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY21NO05_1_Recog_5271621.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY21NO05_2_Learn_5171821.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY21NO05_2_Recog_5271821.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO09_3_Learn_20221615110.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO09_3_Recog_202216152152.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO09_1_Learn_202217121946.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO09_1_Recog_202217122836.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO09_2_Learn_20221811515.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO09_2_Recog_20221812052.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO12_1_Learn_52022420124541.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO12_1_Recog_52022420125453.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO13_1_Learn_202252915450.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO13_1_Recog_2022529151348.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO13_2_Learn_202261115116.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO13_2_Recog_20226111597.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO13_3_Learn_2022527105026.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO13_3_Recog_2022527105927.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO16_1_Learn_2022826164318.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO16_1_Recog_202282616539.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO16_2_Learn_20228261764.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO16_2_Recog_2022826171650.mat</t>
+  </si>
+  <si>
+    <t>Eye2Use</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>AMC_PY21NO05</t>
+  </si>
+  <si>
+    <t>AMC_PY22NO09</t>
+  </si>
+  <si>
+    <t>AMC_PY22NO12</t>
+  </si>
+  <si>
+    <t>AMC_PY22NO13</t>
+  </si>
+  <si>
+    <t>AMC_PY22NO16</t>
+  </si>
+  <si>
+    <t>EDF</t>
+  </si>
+  <si>
+    <t>NO5171621.edf</t>
+  </si>
+  <si>
+    <t>NO5271621.edf</t>
+  </si>
+  <si>
+    <t>NO5171821.edf</t>
+  </si>
+  <si>
+    <t>NO5271821.edf</t>
+  </si>
+  <si>
+    <t>NO20221615110.edf</t>
+  </si>
+  <si>
+    <t>NO202216152152.edf</t>
+  </si>
+  <si>
+    <t>NO202217121946.edf</t>
+  </si>
+  <si>
+    <t>NO202217122836.edf</t>
+  </si>
+  <si>
+    <t>NO20221811515.edf</t>
+  </si>
+  <si>
+    <t>NO20221812052.edf</t>
+  </si>
+  <si>
+    <t>NO52022420124541.edf</t>
+  </si>
+  <si>
+    <t>NO52022420125453.edf</t>
+  </si>
+  <si>
+    <t>NO202252915450.edf</t>
+  </si>
+  <si>
+    <t>NO2022529151348.edf</t>
+  </si>
+  <si>
+    <t>NO202261115116.edf</t>
+  </si>
+  <si>
+    <t>NO20226111597.edf</t>
+  </si>
+  <si>
+    <t>NO2022527105026.edf</t>
+  </si>
+  <si>
+    <t>NO2022527105927.edf</t>
+  </si>
+  <si>
+    <t>NO2022826164318.edf</t>
+  </si>
+  <si>
+    <t>NO202282616539.edf</t>
+  </si>
+  <si>
+    <t>NO20228261764.edf</t>
+  </si>
+  <si>
+    <t>NO2022826171650.edf</t>
+  </si>
+  <si>
+    <t>Variant</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>Behavior</t>
+  </si>
+  <si>
+    <t>MW5_Learning_7.16.21.txt</t>
+  </si>
+  <si>
+    <t>MW5_Recognition_7.16.21.txt</t>
+  </si>
+  <si>
+    <t>MW5_Learning_7.18.21.txt</t>
+  </si>
+  <si>
+    <t>MW5_Recognition_7.18.21.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY520221615110.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY5202216152152.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY5202217121946.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY5202217122836.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY520221811515.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY520221812052.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY52022420124541.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY52022420125453.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY5202252915450.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY52022529151348.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY5202261115116.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY520226111597.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY52022527105026.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY52022527105927.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY52022826164318.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY5202282616539.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY520228261764.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY52022826171650.txt</t>
+  </si>
+  <si>
+    <t>MatFile</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY21NO05_1_Learn_5171621.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY21NO05_1_Recog_5271621.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY21NO05_2_Learn_5171821.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY21NO05_2_Recog_5271821.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO09_3_Learn_20221615110.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO09_3_Recog_202216152152.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO09_1_Learn_202217121946.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO09_1_Recog_202217122836.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO09_2_Learn_20221811515.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO09_2_Recog_20221812052.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO12_1_Learn_52022420124541.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO12_1_Recog_52022420125453.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO13_1_Learn_202252915450.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO13_1_Recog_2022529151348.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO13_2_Learn_202261115116.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO13_2_Recog_20226111597.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO13_3_Learn_2022527105026.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO13_3_Recog_2022527105927.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO16_1_Learn_2022826164318.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO16_1_Recog_202282616539.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO16_2_Learn_20228261764.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO16_2_Recog_2022826171650.mat</t>
+  </si>
+  <si>
+    <t>Eye2Use</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>AMC_PY21NO05</t>
+  </si>
+  <si>
+    <t>AMC_PY22NO09</t>
+  </si>
+  <si>
+    <t>AMC_PY22NO12</t>
+  </si>
+  <si>
+    <t>AMC_PY22NO13</t>
+  </si>
+  <si>
+    <t>AMC_PY22NO16</t>
+  </si>
+  <si>
+    <t>EDF</t>
+  </si>
+  <si>
+    <t>NO5171621.edf</t>
+  </si>
+  <si>
+    <t>NO5271621.edf</t>
+  </si>
+  <si>
+    <t>NO5171821.edf</t>
+  </si>
+  <si>
+    <t>NO5271821.edf</t>
+  </si>
+  <si>
+    <t>NO20221615110.edf</t>
+  </si>
+  <si>
+    <t>NO202216152152.edf</t>
+  </si>
+  <si>
+    <t>NO202217121946.edf</t>
+  </si>
+  <si>
+    <t>NO202217122836.edf</t>
+  </si>
+  <si>
+    <t>NO20221811515.edf</t>
+  </si>
+  <si>
+    <t>NO20221812052.edf</t>
+  </si>
+  <si>
+    <t>NO52022420124541.edf</t>
+  </si>
+  <si>
+    <t>NO52022420125453.edf</t>
+  </si>
+  <si>
+    <t>NO202252915450.edf</t>
+  </si>
+  <si>
+    <t>NO2022529151348.edf</t>
+  </si>
+  <si>
+    <t>NO202261115116.edf</t>
+  </si>
+  <si>
+    <t>NO20226111597.edf</t>
+  </si>
+  <si>
+    <t>NO2022527105026.edf</t>
+  </si>
+  <si>
+    <t>NO2022527105927.edf</t>
+  </si>
+  <si>
+    <t>NO2022826164318.edf</t>
+  </si>
+  <si>
+    <t>NO202282616539.edf</t>
+  </si>
+  <si>
+    <t>NO20228261764.edf</t>
+  </si>
+  <si>
+    <t>NO2022826171650.edf</t>
+  </si>
+  <si>
+    <t>Variant</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>Behavior</t>
+  </si>
+  <si>
+    <t>MW5_Learning_7.16.21.txt</t>
+  </si>
+  <si>
+    <t>MW5_Recognition_7.16.21.txt</t>
+  </si>
+  <si>
+    <t>MW5_Learning_7.18.21.txt</t>
+  </si>
+  <si>
+    <t>MW5_Recognition_7.18.21.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY520221615110.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY5202216152152.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY5202217121946.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY5202217122836.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY520221811515.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY520221812052.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY52022420124541.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY52022420125453.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY5202252915450.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY52022529151348.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY5202261115116.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY520226111597.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY52022527105026.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY52022527105927.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY52022826164318.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY5202282616539.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY520228261764.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY52022826171650.txt</t>
+  </si>
+  <si>
+    <t>MatFile</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY21NO05_1_Learn_5171621.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY21NO05_1_Recog_5271621.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY21NO05_2_Learn_5171821.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY21NO05_2_Recog_5271821.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO09_3_Learn_20221615110.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO09_3_Recog_202216152152.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO09_1_Learn_202217121946.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO09_1_Recog_202217122836.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO09_2_Learn_20221811515.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO09_2_Recog_20221812052.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO12_1_Learn_52022420124541.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO12_1_Recog_52022420125453.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO13_1_Learn_202252915450.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO13_1_Recog_2022529151348.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO13_2_Learn_202261115116.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO13_2_Recog_20226111597.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO13_3_Learn_2022527105026.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO13_3_Recog_2022527105927.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO16_1_Learn_2022826164318.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO16_1_Recog_202282616539.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO16_2_Learn_20228261764.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO16_2_Recog_2022826171650.mat</t>
+  </si>
+  <si>
+    <t>Eye2Use</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>AMC_PY21NO05</t>
+  </si>
+  <si>
+    <t>AMC_PY22NO09</t>
+  </si>
+  <si>
+    <t>AMC_PY22NO12</t>
+  </si>
+  <si>
+    <t>AMC_PY22NO13</t>
+  </si>
+  <si>
+    <t>AMC_PY22NO16</t>
+  </si>
+  <si>
+    <t>EDF</t>
+  </si>
+  <si>
+    <t>NO5171621.edf</t>
+  </si>
+  <si>
+    <t>NO5271621.edf</t>
+  </si>
+  <si>
+    <t>NO5171821.edf</t>
+  </si>
+  <si>
+    <t>NO5271821.edf</t>
+  </si>
+  <si>
+    <t>NO20221615110.edf</t>
+  </si>
+  <si>
+    <t>NO202216152152.edf</t>
+  </si>
+  <si>
+    <t>NO202217121946.edf</t>
+  </si>
+  <si>
+    <t>NO202217122836.edf</t>
+  </si>
+  <si>
+    <t>NO20221811515.edf</t>
+  </si>
+  <si>
+    <t>NO20221812052.edf</t>
+  </si>
+  <si>
+    <t>NO52022420124541.edf</t>
+  </si>
+  <si>
+    <t>NO52022420125453.edf</t>
+  </si>
+  <si>
+    <t>NO202252915450.edf</t>
+  </si>
+  <si>
+    <t>NO2022529151348.edf</t>
+  </si>
+  <si>
+    <t>NO202261115116.edf</t>
+  </si>
+  <si>
+    <t>NO20226111597.edf</t>
+  </si>
+  <si>
+    <t>NO2022527105026.edf</t>
+  </si>
+  <si>
+    <t>NO2022527105927.edf</t>
+  </si>
+  <si>
+    <t>NO2022826164318.edf</t>
+  </si>
+  <si>
+    <t>NO202282616539.edf</t>
+  </si>
+  <si>
+    <t>NO20228261764.edf</t>
+  </si>
+  <si>
+    <t>NO2022826171650.edf</t>
+  </si>
+  <si>
+    <t>Variant</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>recog</t>
+  </si>
+  <si>
+    <t>Behavior</t>
+  </si>
+  <si>
+    <t>MW5_Learning_7.16.21.txt</t>
+  </si>
+  <si>
+    <t>MW5_Recognition_7.16.21.txt</t>
+  </si>
+  <si>
+    <t>MW5_Learning_7.18.21.txt</t>
+  </si>
+  <si>
+    <t>MW5_Recognition_7.18.21.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY520221615110.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY5202216152152.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY5202217121946.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY5202217122836.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY520221811515.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY520221812052.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY52022420124541.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY52022420125453.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY5202252915450.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY52022529151348.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY5202261115116.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY520226111597.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY52022527105026.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY52022527105927.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY52022826164318.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY5202282616539.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY520228261764.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY52022826171650.txt</t>
+  </si>
+  <si>
+    <t>MatFile</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY21NO05_1_Learn_5171621.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY21NO05_1_Recog_5271621.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY21NO05_2_Learn_5171821.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY21NO05_2_Recog_5271821.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO09_3_Learn_20221615110.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO09_3_Recog_202216152152.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO09_1_Learn_202217121946.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO09_1_Recog_202217122836.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO09_2_Learn_20221811515.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO09_2_Recog_20221812052.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO12_1_Learn_52022420124541.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO12_1_Recog_52022420125453.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO13_1_Learn_202252915450.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO13_1_Recog_2022529151348.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO13_2_Learn_202261115116.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO13_2_Recog_20226111597.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO13_3_Learn_2022527105026.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO13_3_Recog_2022527105927.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO16_1_Learn_2022826164318.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO16_1_Recog_202282616539.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO16_2_Learn_20228261764.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO16_2_Recog_2022826171650.mat</t>
+  </si>
+  <si>
+    <t>Eye2Use</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Left</t>
   </si>
   <si>
     <t>Subject</t>
@@ -1352,542 +2927,542 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="true"/>
-    <col min="2" max="2" width="21.046875" customWidth="true"/>
-    <col min="3" max="3" width="7.046875" customWidth="true"/>
-    <col min="4" max="4" width="5.7109375" customWidth="true"/>
-    <col min="5" max="5" width="30.7109375" customWidth="true"/>
-    <col min="6" max="6" width="49.48828125" customWidth="true"/>
-    <col min="7" max="7" width="8.15625" customWidth="true"/>
+    <col min="1" max="1" width="15.28515625" customWidth="true"/>
+    <col min="2" max="2" width="21.5703125" customWidth="true"/>
+    <col min="3" max="3" width="7.5703125" customWidth="true"/>
+    <col min="4" max="4" width="6" customWidth="true"/>
+    <col min="5" max="5" width="31.42578125" customWidth="true"/>
+    <col min="6" max="6" width="51.140625" customWidth="true"/>
+    <col min="7" max="7" width="8.5703125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" x14ac:dyDescent="0.25">
       <c r="A1" s="0" t="s">
-        <v>211</v>
+        <v>736</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>217</v>
+        <v>742</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>240</v>
+        <v>765</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>241</v>
+        <v>766</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>264</v>
+        <v>789</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>287</v>
+        <v>812</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>310</v>
+        <v>835</v>
       </c>
     </row>
     <row r="2" x14ac:dyDescent="0.25">
       <c r="A2" s="0" t="s">
-        <v>212</v>
+        <v>737</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>218</v>
+        <v>743</v>
       </c>
       <c r="C2" s="0">
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>242</v>
+        <v>767</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>265</v>
+        <v>790</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>288</v>
+        <v>813</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>311</v>
+        <v>836</v>
       </c>
     </row>
     <row r="3" x14ac:dyDescent="0.25">
       <c r="A3" s="0" t="s">
-        <v>212</v>
+        <v>737</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>219</v>
+        <v>744</v>
       </c>
       <c r="C3" s="0">
         <v>1</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>243</v>
+        <v>768</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>266</v>
+        <v>791</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>289</v>
+        <v>814</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>311</v>
+        <v>836</v>
       </c>
     </row>
     <row r="4" x14ac:dyDescent="0.25">
       <c r="A4" s="0" t="s">
-        <v>212</v>
+        <v>737</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>220</v>
+        <v>745</v>
       </c>
       <c r="C4" s="0">
         <v>2</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>244</v>
+        <v>769</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>267</v>
+        <v>792</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>290</v>
+        <v>815</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>311</v>
+        <v>836</v>
       </c>
     </row>
     <row r="5" x14ac:dyDescent="0.25">
       <c r="A5" s="0" t="s">
-        <v>212</v>
+        <v>737</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>221</v>
+        <v>746</v>
       </c>
       <c r="C5" s="0">
         <v>2</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>245</v>
+        <v>770</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>268</v>
+        <v>793</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>291</v>
+        <v>816</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>311</v>
+        <v>836</v>
       </c>
     </row>
     <row r="6" x14ac:dyDescent="0.25">
       <c r="A6" s="0" t="s">
-        <v>213</v>
+        <v>738</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>222</v>
+        <v>747</v>
       </c>
       <c r="C6" s="0">
         <v>3</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>246</v>
+        <v>771</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>269</v>
+        <v>794</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>292</v>
+        <v>817</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>312</v>
+        <v>837</v>
       </c>
     </row>
     <row r="7" x14ac:dyDescent="0.25">
       <c r="A7" s="0" t="s">
-        <v>213</v>
+        <v>738</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>223</v>
+        <v>748</v>
       </c>
       <c r="C7" s="0">
         <v>3</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>247</v>
+        <v>772</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>270</v>
+        <v>795</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>293</v>
+        <v>818</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>313</v>
+        <v>838</v>
       </c>
     </row>
     <row r="8" x14ac:dyDescent="0.25">
       <c r="A8" s="0" t="s">
-        <v>213</v>
+        <v>738</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>224</v>
+        <v>749</v>
       </c>
       <c r="C8" s="0">
         <v>1</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>248</v>
+        <v>773</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>271</v>
+        <v>796</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>294</v>
+        <v>819</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>313</v>
+        <v>838</v>
       </c>
     </row>
     <row r="9" x14ac:dyDescent="0.25">
       <c r="A9" s="0" t="s">
-        <v>213</v>
+        <v>738</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>225</v>
+        <v>750</v>
       </c>
       <c r="C9" s="0">
         <v>1</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>249</v>
+        <v>774</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>272</v>
+        <v>797</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>295</v>
+        <v>820</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>313</v>
+        <v>838</v>
       </c>
     </row>
     <row r="10" x14ac:dyDescent="0.25">
       <c r="A10" s="0" t="s">
-        <v>213</v>
+        <v>738</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>226</v>
+        <v>751</v>
       </c>
       <c r="C10" s="0">
         <v>2</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>250</v>
+        <v>775</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>273</v>
+        <v>798</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>296</v>
+        <v>821</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>314</v>
+        <v>839</v>
       </c>
     </row>
     <row r="11" x14ac:dyDescent="0.25">
       <c r="A11" s="0" t="s">
-        <v>213</v>
+        <v>738</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>227</v>
+        <v>752</v>
       </c>
       <c r="C11" s="0">
         <v>2</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>251</v>
+        <v>776</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>274</v>
+        <v>799</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>297</v>
+        <v>822</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>314</v>
+        <v>839</v>
       </c>
     </row>
     <row r="12" x14ac:dyDescent="0.25">
       <c r="A12" s="0" t="s">
-        <v>214</v>
+        <v>739</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>228</v>
+        <v>753</v>
       </c>
       <c r="C12" s="0">
         <v>3</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>252</v>
+        <v>777</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>275</v>
+        <v>800</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>298</v>
+        <v>823</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>314</v>
+        <v>839</v>
       </c>
     </row>
     <row r="13" x14ac:dyDescent="0.25">
       <c r="A13" s="0" t="s">
-        <v>214</v>
+        <v>739</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>229</v>
+        <v>754</v>
       </c>
       <c r="C13" s="0">
         <v>3</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>253</v>
+        <v>778</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>276</v>
+        <v>801</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>299</v>
+        <v>824</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>314</v>
+        <v>839</v>
       </c>
     </row>
     <row r="14" x14ac:dyDescent="0.25">
       <c r="A14" s="0" t="s">
-        <v>215</v>
+        <v>740</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>230</v>
+        <v>755</v>
       </c>
       <c r="C14" s="0">
         <v>1</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>254</v>
+        <v>779</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>277</v>
+        <v>802</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>300</v>
+        <v>825</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>314</v>
+        <v>839</v>
       </c>
     </row>
     <row r="15" x14ac:dyDescent="0.25">
       <c r="A15" s="0" t="s">
-        <v>215</v>
+        <v>740</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>231</v>
+        <v>756</v>
       </c>
       <c r="C15" s="0">
         <v>1</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>255</v>
+        <v>780</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>278</v>
+        <v>803</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>301</v>
+        <v>826</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>314</v>
+        <v>839</v>
       </c>
     </row>
     <row r="16" x14ac:dyDescent="0.25">
       <c r="A16" s="0" t="s">
-        <v>215</v>
+        <v>740</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>232</v>
+        <v>757</v>
       </c>
       <c r="C16" s="0">
         <v>2</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>256</v>
+        <v>781</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>279</v>
+        <v>804</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>302</v>
+        <v>827</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>314</v>
+        <v>839</v>
       </c>
     </row>
     <row r="17" x14ac:dyDescent="0.25">
       <c r="A17" s="0" t="s">
-        <v>215</v>
+        <v>740</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>233</v>
+        <v>758</v>
       </c>
       <c r="C17" s="0">
         <v>2</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>257</v>
+        <v>782</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>280</v>
+        <v>805</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>303</v>
+        <v>828</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>314</v>
+        <v>839</v>
       </c>
     </row>
     <row r="18" x14ac:dyDescent="0.25">
       <c r="A18" s="0" t="s">
-        <v>215</v>
+        <v>740</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>234</v>
+        <v>759</v>
       </c>
       <c r="C18" s="0">
         <v>3</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>258</v>
+        <v>783</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>281</v>
+        <v>806</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>304</v>
+        <v>829</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>314</v>
+        <v>839</v>
       </c>
     </row>
     <row r="19" x14ac:dyDescent="0.25">
       <c r="A19" s="0" t="s">
-        <v>215</v>
+        <v>740</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>235</v>
+        <v>760</v>
       </c>
       <c r="C19" s="0">
         <v>3</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>259</v>
+        <v>784</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>282</v>
+        <v>807</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>305</v>
+        <v>830</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>314</v>
+        <v>839</v>
       </c>
     </row>
     <row r="20" x14ac:dyDescent="0.25">
       <c r="A20" s="0" t="s">
-        <v>216</v>
+        <v>741</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>236</v>
+        <v>761</v>
       </c>
       <c r="C20" s="0">
         <v>1</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>260</v>
+        <v>785</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>283</v>
+        <v>808</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>306</v>
+        <v>831</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>314</v>
+        <v>839</v>
       </c>
     </row>
     <row r="21" x14ac:dyDescent="0.25">
       <c r="A21" s="0" t="s">
-        <v>216</v>
+        <v>741</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>237</v>
+        <v>762</v>
       </c>
       <c r="C21" s="0">
         <v>1</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>261</v>
+        <v>786</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>284</v>
+        <v>809</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>307</v>
+        <v>832</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>314</v>
+        <v>839</v>
       </c>
     </row>
     <row r="22" x14ac:dyDescent="0.25">
       <c r="A22" s="0" t="s">
-        <v>216</v>
+        <v>741</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>238</v>
+        <v>763</v>
       </c>
       <c r="C22" s="0">
         <v>2</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>262</v>
+        <v>787</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>285</v>
+        <v>810</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>308</v>
+        <v>833</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>314</v>
+        <v>839</v>
       </c>
     </row>
     <row r="23" x14ac:dyDescent="0.25">
       <c r="A23" s="0" t="s">
-        <v>216</v>
+        <v>741</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>239</v>
+        <v>764</v>
       </c>
       <c r="C23" s="0">
         <v>2</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>263</v>
+        <v>788</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>286</v>
+        <v>811</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>309</v>
+        <v>834</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>315</v>
+        <v>840</v>
       </c>
     </row>
   </sheetData>

--- a/NewOldTask-analysis/variantLIST.xlsx
+++ b/NewOldTask-analysis/variantLIST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Github\Eye-tracking\NewOldTask-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A4E306-3082-4F0B-9FB8-FC99009D99CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF03E3C-E671-4CFE-948A-58EB61D59B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="2025" windowWidth="24390" windowHeight="17010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19050" yWindow="1530" windowWidth="21075" windowHeight="18105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="117">
+  <si>
+    <t>Right</t>
+  </si>
   <si>
     <t>Subject</t>
   </si>
@@ -44,6 +47,9 @@
     <t>AMC_PY21NO05</t>
   </si>
   <si>
+    <t>AMC_PY21NO08</t>
+  </si>
+  <si>
     <t>AMC_PY22NO09</t>
   </si>
   <si>
@@ -56,19 +62,64 @@
     <t>AMC_PY22NO16</t>
   </si>
   <si>
+    <t>AMC_PY23NO23</t>
+  </si>
+  <si>
+    <t>Mwid</t>
+  </si>
+  <si>
+    <t>MW5</t>
+  </si>
+  <si>
+    <t>MW8</t>
+  </si>
+  <si>
+    <t>MW9</t>
+  </si>
+  <si>
+    <t>MW12</t>
+  </si>
+  <si>
+    <t>MW13</t>
+  </si>
+  <si>
+    <t>MW16</t>
+  </si>
+  <si>
+    <t>MW23</t>
+  </si>
+  <si>
     <t>EDF</t>
   </si>
   <si>
-    <t>NO5171621.edf</t>
-  </si>
-  <si>
-    <t>NO5271621.edf</t>
-  </si>
-  <si>
-    <t>NO5171821.edf</t>
-  </si>
-  <si>
-    <t>NO5271821.edf</t>
+    <t>MW5_Learning_7.16.21.edf</t>
+  </si>
+  <si>
+    <t>MW5_Recognition_7.16.21.edf</t>
+  </si>
+  <si>
+    <t>MW5_Learning_7.18.21.edf</t>
+  </si>
+  <si>
+    <t>MW5_Recognition_7.18.21.edf</t>
+  </si>
+  <si>
+    <t>NO2021101310584.edf</t>
+  </si>
+  <si>
+    <t>NO20211013111440.edf</t>
+  </si>
+  <si>
+    <t>NO202217121946.edf</t>
+  </si>
+  <si>
+    <t>NO202217122836.edf</t>
+  </si>
+  <si>
+    <t>NO20221811515.edf</t>
+  </si>
+  <si>
+    <t>NO20221812052.edf</t>
   </si>
   <si>
     <t>NO20221615110.edf</t>
@@ -77,18 +128,6 @@
     <t>NO202216152152.edf</t>
   </si>
   <si>
-    <t>NO202217121946.edf</t>
-  </si>
-  <si>
-    <t>NO202217122836.edf</t>
-  </si>
-  <si>
-    <t>NO20221811515.edf</t>
-  </si>
-  <si>
-    <t>NO20221812052.edf</t>
-  </si>
-  <si>
     <t>NO52022420124541.edf</t>
   </si>
   <si>
@@ -101,18 +140,6 @@
     <t>NO2022529151348.edf</t>
   </si>
   <si>
-    <t>NO202261115116.edf</t>
-  </si>
-  <si>
-    <t>NO20226111597.edf</t>
-  </si>
-  <si>
-    <t>NO2022527105026.edf</t>
-  </si>
-  <si>
-    <t>NO2022527105927.edf</t>
-  </si>
-  <si>
     <t>NO2022826164318.edf</t>
   </si>
   <si>
@@ -125,6 +152,12 @@
     <t>NO2022826171650.edf</t>
   </si>
   <si>
+    <t>NO202362612121.edf</t>
+  </si>
+  <si>
+    <t>NO2023626121219.edf</t>
+  </si>
+  <si>
     <t>Variant</t>
   </si>
   <si>
@@ -212,24 +245,30 @@
     <t>MW5_Recognition_7.18.21.txt</t>
   </si>
   <si>
+    <t>NEWOLDDELAY52021101310584.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY520211013111440.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY5202217121946.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY5202217122836.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY520221811515.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY520221812052.txt</t>
+  </si>
+  <si>
     <t>NEWOLDDELAY520221615110.txt</t>
   </si>
   <si>
     <t>NEWOLDDELAY5202216152152.txt</t>
   </si>
   <si>
-    <t>NEWOLDDELAY5202217121946.txt</t>
-  </si>
-  <si>
-    <t>NEWOLDDELAY5202217122836.txt</t>
-  </si>
-  <si>
-    <t>NEWOLDDELAY520221811515.txt</t>
-  </si>
-  <si>
-    <t>NEWOLDDELAY520221812052.txt</t>
-  </si>
-  <si>
     <t>NEWOLDDELAY52022420124541.txt</t>
   </si>
   <si>
@@ -242,18 +281,6 @@
     <t>NEWOLDDELAY52022529151348.txt</t>
   </si>
   <si>
-    <t>NEWOLDDELAY5202261115116.txt</t>
-  </si>
-  <si>
-    <t>NEWOLDDELAY520226111597.txt</t>
-  </si>
-  <si>
-    <t>NEWOLDDELAY52022527105026.txt</t>
-  </si>
-  <si>
-    <t>NEWOLDDELAY52022527105927.txt</t>
-  </si>
-  <si>
     <t>NEWOLDDELAY52022826164318.txt</t>
   </si>
   <si>
@@ -266,6 +293,12 @@
     <t>NEWOLDDELAY52022826171650.txt</t>
   </si>
   <si>
+    <t>NEWOLDDELAY5202362612121.txt</t>
+  </si>
+  <si>
+    <t>NEWOLDDELAY52023626121219.txt</t>
+  </si>
+  <si>
     <t>MatFile</t>
   </si>
   <si>
@@ -281,24 +314,30 @@
     <t>eyetrack_AMC_PY21NO05_2_Recog_5271821.mat</t>
   </si>
   <si>
+    <t>eyetrack_AMC_PY21NO08_1_Learn_2021101310584.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY21NO08_1_Recog_20211013111440.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO09_1_Learn_202217121946.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO09_1_Recog_202217122836.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO09_2_Learn_20221811515.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY22NO09_2_Recog_20221812052.mat</t>
+  </si>
+  <si>
     <t>eyetrack_AMC_PY22NO09_3_Learn_20221615110.mat</t>
   </si>
   <si>
     <t>eyetrack_AMC_PY22NO09_3_Recog_202216152152.mat</t>
   </si>
   <si>
-    <t>eyetrack_AMC_PY22NO09_1_Learn_202217121946.mat</t>
-  </si>
-  <si>
-    <t>eyetrack_AMC_PY22NO09_1_Recog_202217122836.mat</t>
-  </si>
-  <si>
-    <t>eyetrack_AMC_PY22NO09_2_Learn_20221811515.mat</t>
-  </si>
-  <si>
-    <t>eyetrack_AMC_PY22NO09_2_Recog_20221812052.mat</t>
-  </si>
-  <si>
     <t>eyetrack_AMC_PY22NO12_1_Learn_52022420124541.mat</t>
   </si>
   <si>
@@ -311,18 +350,6 @@
     <t>eyetrack_AMC_PY22NO13_1_Recog_2022529151348.mat</t>
   </si>
   <si>
-    <t>eyetrack_AMC_PY22NO13_2_Learn_202261115116.mat</t>
-  </si>
-  <si>
-    <t>eyetrack_AMC_PY22NO13_2_Recog_20226111597.mat</t>
-  </si>
-  <si>
-    <t>eyetrack_AMC_PY22NO13_3_Learn_2022527105026.mat</t>
-  </si>
-  <si>
-    <t>eyetrack_AMC_PY22NO13_3_Recog_2022527105927.mat</t>
-  </si>
-  <si>
     <t>eyetrack_AMC_PY22NO16_1_Learn_2022826164318.mat</t>
   </si>
   <si>
@@ -335,6 +362,12 @@
     <t>eyetrack_AMC_PY22NO16_2_Recog_2022826171650.mat</t>
   </si>
   <si>
+    <t>eyetrack_AMC_PY23NO23_1_Learn_202362612121.mat</t>
+  </si>
+  <si>
+    <t>eyetrack_AMC_PY23NO23_1_Recog_2023626121219.mat</t>
+  </si>
+  <si>
     <t>Eye2Use</t>
   </si>
   <si>
@@ -353,14 +386,14 @@
     <t>Left</t>
   </si>
   <si>
-    <t>nwbFile</t>
+    <t>Right</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,6 +403,19 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -395,9 +441,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -715,551 +763,617 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="H6" sqref="H6:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" customWidth="1"/>
-    <col min="4" max="4" width="6" customWidth="1"/>
-    <col min="5" max="5" width="31.42578125" customWidth="1"/>
-    <col min="6" max="6" width="51.140625" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="6" customWidth="1"/>
+    <col min="6" max="6" width="32.42578125" customWidth="1"/>
+    <col min="7" max="7" width="51.140625" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="G1" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="H1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
       <c r="E2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" t="s">
-        <v>100</v>
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
       <c r="E3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3" t="s">
-        <v>100</v>
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
       <c r="E4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4" t="s">
-        <v>100</v>
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
       <c r="E5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G5" t="s">
-        <v>100</v>
+        <v>45</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>82</v>
+        <v>47</v>
+      </c>
+      <c r="F7" t="s">
+        <v>70</v>
       </c>
       <c r="G7" t="s">
-        <v>102</v>
+        <v>93</v>
+      </c>
+      <c r="H7" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8">
         <v>1</v>
       </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
       <c r="E8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" t="s">
-        <v>102</v>
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9">
         <v>1</v>
       </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
       <c r="E9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G9" t="s">
-        <v>102</v>
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10">
         <v>2</v>
       </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>39</v>
-      </c>
       <c r="E10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G10" t="s">
-        <v>103</v>
+        <v>50</v>
+      </c>
+      <c r="F10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11">
         <v>2</v>
       </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>40</v>
-      </c>
       <c r="E11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G11" t="s">
-        <v>103</v>
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12">
         <v>3</v>
       </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>41</v>
-      </c>
       <c r="E12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G12" t="s">
-        <v>103</v>
+        <v>52</v>
+      </c>
+      <c r="F12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13">
         <v>3</v>
       </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>42</v>
-      </c>
       <c r="E13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G13" t="s">
-        <v>103</v>
+        <v>53</v>
+      </c>
+      <c r="F13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>43</v>
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14" t="s">
-        <v>103</v>
+        <v>54</v>
+      </c>
+      <c r="F14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H14" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>44</v>
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G15" t="s">
-        <v>103</v>
+        <v>55</v>
+      </c>
+      <c r="F15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H15" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20">
         <v>2</v>
       </c>
-      <c r="D16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17">
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21">
         <v>2</v>
       </c>
-      <c r="D17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" t="s">
-        <v>69</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18">
+      <c r="E21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22">
         <v>3</v>
       </c>
-      <c r="D18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G18" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19">
+      <c r="E22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23">
         <v>3</v>
       </c>
-      <c r="D19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G19" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23" t="s">
-        <v>52</v>
-      </c>
       <c r="E23" t="s">
-        <v>75</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>98</v>
+        <v>63</v>
+      </c>
+      <c r="F23" t="s">
+        <v>86</v>
       </c>
       <c r="G23" t="s">
-        <v>104</v>
+        <v>109</v>
+      </c>
+      <c r="H23" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
